--- a/codice_quadrilatero.xlsx
+++ b/codice_quadrilatero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Quadrilatero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC41FE5-9A8B-4F57-B429-43275E8986E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D9EDF-D660-4CD8-83E4-AA9DD2756AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
